--- a/nutritionalDatabase.xlsx
+++ b/nutritionalDatabase.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Crunchy Taco - Specialties" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="White Pizza" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Veggie Shack, Vegan, Lettuce Wrap" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,7 +448,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Crunchy Taco - Specialties</t>
+          <t>White Pizza</t>
         </is>
       </c>
     </row>
@@ -459,7 +460,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>170 kcals</t>
+          <t>2066 kcals</t>
         </is>
       </c>
     </row>
@@ -471,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9 grams</t>
+          <t>86 grams</t>
         </is>
       </c>
     </row>
@@ -483,7 +484,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>25 grams</t>
+          <t>163 grams</t>
         </is>
       </c>
     </row>
@@ -495,7 +496,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1 grams</t>
+          <t>4 grams</t>
         </is>
       </c>
     </row>
@@ -507,7 +508,98 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8 grams</t>
+          <t>80 grams</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Item Name:</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Veggie Shack, Vegan, Lettuce Wrap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Calories:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>310 kcals</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Total Fat:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>18 grams</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cholesterol:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0 grams</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sugar:</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6 grams</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Protein:</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4 grams</t>
         </is>
       </c>
     </row>

--- a/nutritionalDatabase.xlsx
+++ b/nutritionalDatabase.xlsx
@@ -7,8 +7,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="White Pizza" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Veggie Shack, Vegan, Lettuce Wrap" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Saag Paneer (Spinach With Fresh Indian Cheese)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Indian Spiced Chickpea Gravy (Chole) Recipe" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Blueberry Muffin" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Breadsticks" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -448,7 +450,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>White Pizza</t>
+          <t>Saag Paneer (Spinach With Fresh Indian Cheese)</t>
         </is>
       </c>
     </row>
@@ -460,7 +462,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2066 kcals</t>
+          <t>2579 kcals</t>
         </is>
       </c>
     </row>
@@ -472,7 +474,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>86 grams</t>
+          <t>188 grams</t>
         </is>
       </c>
     </row>
@@ -484,7 +486,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>163 grams</t>
+          <t>318 grams</t>
         </is>
       </c>
     </row>
@@ -496,7 +498,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4 grams</t>
+          <t>106 grams</t>
         </is>
       </c>
     </row>
@@ -508,7 +510,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>80 grams</t>
+          <t>78 grams</t>
         </is>
       </c>
     </row>
@@ -539,7 +541,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Veggie Shack, Vegan, Lettuce Wrap</t>
+          <t>Indian Spiced Chickpea Gravy (Chole) Recipe</t>
         </is>
       </c>
     </row>
@@ -551,7 +553,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>310 kcals</t>
+          <t>1244 kcals</t>
         </is>
       </c>
     </row>
@@ -563,7 +565,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18 grams</t>
+          <t>43 grams</t>
         </is>
       </c>
     </row>
@@ -587,7 +589,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>45 grams</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Protein:</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>50 grams</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Item Name:</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Blueberry Muffin</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Calories:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>470 kcals</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Total Fat:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>22 grams</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cholesterol:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>35 grams</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sugar:</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>36 grams</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Protein:</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>6 grams</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Item Name:</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Breadsticks</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Calories:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>140 kcals</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Total Fat:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4.5 grams</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cholesterol:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0 grams</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sugar:</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1 grams</t>
         </is>
       </c>
     </row>
